--- a/CumulativeTestsByTypeByCounty/2022-03-02.xlsx
+++ b/CumulativeTestsByTypeByCounty/2022-03-02.xlsx
@@ -1074,16 +1074,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>84552</v>
+        <v>84578</v>
       </c>
       <c r="C2" s="4">
         <v>2145</v>
       </c>
       <c r="D2" s="4">
-        <v>46527</v>
+        <v>46562</v>
       </c>
       <c r="E2" s="4">
-        <v>133224</v>
+        <v>133285</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1091,16 +1091,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>6858</v>
+        <v>6860</v>
       </c>
       <c r="C3" s="4">
         <v>351</v>
       </c>
       <c r="D3" s="4">
-        <v>7551</v>
+        <v>7612</v>
       </c>
       <c r="E3" s="4">
-        <v>14760</v>
+        <v>14823</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1108,16 +1108,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>87298</v>
+        <v>87336</v>
       </c>
       <c r="C4" s="4">
         <v>4714</v>
       </c>
       <c r="D4" s="4">
-        <v>92254</v>
+        <v>92274</v>
       </c>
       <c r="E4" s="4">
-        <v>184266</v>
+        <v>184324</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1125,16 +1125,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>19502</v>
+        <v>19534</v>
       </c>
       <c r="C5" s="4">
         <v>3007</v>
       </c>
       <c r="D5" s="4">
-        <v>16664</v>
+        <v>16679</v>
       </c>
       <c r="E5" s="4">
-        <v>39173</v>
+        <v>39220</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1142,16 +1142,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>5209</v>
+        <v>5213</v>
       </c>
       <c r="C6" s="4">
         <v>900</v>
       </c>
       <c r="D6" s="4">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="E6" s="4">
-        <v>8333</v>
+        <v>8338</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1176,16 +1176,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>124281</v>
+        <v>124321</v>
       </c>
       <c r="C8" s="4">
         <v>1508</v>
       </c>
       <c r="D8" s="4">
-        <v>20532</v>
+        <v>20553</v>
       </c>
       <c r="E8" s="4">
-        <v>146321</v>
+        <v>146382</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1193,16 +1193,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>33842</v>
+        <v>33898</v>
       </c>
       <c r="C9" s="4">
-        <v>1924</v>
+        <v>1928</v>
       </c>
       <c r="D9" s="4">
-        <v>6675</v>
+        <v>6689</v>
       </c>
       <c r="E9" s="4">
-        <v>42441</v>
+        <v>42515</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1210,16 +1210,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>2917</v>
+        <v>2923</v>
       </c>
       <c r="C10" s="4">
         <v>101</v>
       </c>
       <c r="D10" s="4">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="E10" s="4">
-        <v>5561</v>
+        <v>5568</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1227,16 +1227,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>16577</v>
+        <v>16585</v>
       </c>
       <c r="C11" s="4">
         <v>919</v>
       </c>
       <c r="D11" s="4">
-        <v>10966</v>
+        <v>10975</v>
       </c>
       <c r="E11" s="4">
-        <v>28462</v>
+        <v>28479</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1244,16 +1244,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>110929</v>
+        <v>110997</v>
       </c>
       <c r="C12" s="4">
-        <v>2813</v>
+        <v>2815</v>
       </c>
       <c r="D12" s="4">
-        <v>50776</v>
+        <v>50833</v>
       </c>
       <c r="E12" s="4">
-        <v>164518</v>
+        <v>164645</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1261,16 +1261,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="C13" s="4">
         <v>636</v>
       </c>
       <c r="D13" s="4">
-        <v>4758</v>
+        <v>4764</v>
       </c>
       <c r="E13" s="4">
-        <v>7801</v>
+        <v>7808</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1278,16 +1278,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>57177</v>
+        <v>57216</v>
       </c>
       <c r="C14" s="4">
-        <v>8604</v>
+        <v>8610</v>
       </c>
       <c r="D14" s="4">
-        <v>27895</v>
+        <v>27938</v>
       </c>
       <c r="E14" s="4">
-        <v>93676</v>
+        <v>93764</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1295,16 +1295,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>466780</v>
+        <v>467071</v>
       </c>
       <c r="C15" s="4">
-        <v>16250</v>
+        <v>16257</v>
       </c>
       <c r="D15" s="4">
-        <v>132840</v>
+        <v>133072</v>
       </c>
       <c r="E15" s="4">
-        <v>615870</v>
+        <v>616400</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1312,16 +1312,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>5037860</v>
+        <v>5040463</v>
       </c>
       <c r="C16" s="4">
-        <v>81822</v>
+        <v>81883</v>
       </c>
       <c r="D16" s="4">
-        <v>774852</v>
+        <v>775725</v>
       </c>
       <c r="E16" s="4">
-        <v>5894534</v>
+        <v>5898071</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1329,16 +1329,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>10310</v>
+        <v>10319</v>
       </c>
       <c r="C17" s="4">
         <v>596</v>
       </c>
       <c r="D17" s="4">
-        <v>6253</v>
+        <v>6254</v>
       </c>
       <c r="E17" s="4">
-        <v>17159</v>
+        <v>17169</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1363,7 +1363,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>13855</v>
+        <v>13864</v>
       </c>
       <c r="C19" s="4">
         <v>619</v>
@@ -1372,7 +1372,7 @@
         <v>10560</v>
       </c>
       <c r="E19" s="4">
-        <v>25034</v>
+        <v>25043</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1380,16 +1380,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>98218</v>
+        <v>98234</v>
       </c>
       <c r="C20" s="4">
         <v>10739</v>
       </c>
       <c r="D20" s="4">
-        <v>43338</v>
+        <v>43398</v>
       </c>
       <c r="E20" s="4">
-        <v>152295</v>
+        <v>152371</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1397,16 +1397,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>670763</v>
+        <v>671269</v>
       </c>
       <c r="C21" s="4">
-        <v>27353</v>
+        <v>27370</v>
       </c>
       <c r="D21" s="4">
-        <v>146031</v>
+        <v>146258</v>
       </c>
       <c r="E21" s="4">
-        <v>844147</v>
+        <v>844897</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1414,16 +1414,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>509188</v>
+        <v>509641</v>
       </c>
       <c r="C22" s="4">
-        <v>13808</v>
+        <v>13809</v>
       </c>
       <c r="D22" s="4">
-        <v>59775</v>
+        <v>59809</v>
       </c>
       <c r="E22" s="4">
-        <v>582771</v>
+        <v>583259</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1431,7 +1431,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>9602</v>
+        <v>9607</v>
       </c>
       <c r="C23" s="4">
         <v>180</v>
@@ -1440,7 +1440,7 @@
         <v>3672</v>
       </c>
       <c r="E23" s="4">
-        <v>13454</v>
+        <v>13459</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1465,16 +1465,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>26580</v>
+        <v>26586</v>
       </c>
       <c r="C25" s="4">
         <v>1925</v>
       </c>
       <c r="D25" s="4">
-        <v>7276</v>
+        <v>7282</v>
       </c>
       <c r="E25" s="4">
-        <v>35781</v>
+        <v>35793</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1482,16 +1482,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>30154</v>
+        <v>30168</v>
       </c>
       <c r="C26" s="4">
         <v>1272</v>
       </c>
       <c r="D26" s="4">
-        <v>51571</v>
+        <v>51626</v>
       </c>
       <c r="E26" s="4">
-        <v>82997</v>
+        <v>83066</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1499,16 +1499,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>29588</v>
+        <v>29611</v>
       </c>
       <c r="C27" s="4">
         <v>884</v>
       </c>
       <c r="D27" s="4">
-        <v>8067</v>
+        <v>8073</v>
       </c>
       <c r="E27" s="4">
-        <v>38539</v>
+        <v>38568</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1516,16 +1516,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>65116</v>
+        <v>65159</v>
       </c>
       <c r="C28" s="4">
         <v>2657</v>
       </c>
       <c r="D28" s="4">
-        <v>17057</v>
+        <v>17065</v>
       </c>
       <c r="E28" s="4">
-        <v>84830</v>
+        <v>84881</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1533,16 +1533,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>71084</v>
+        <v>71130</v>
       </c>
       <c r="C29" s="4">
         <v>2352</v>
       </c>
       <c r="D29" s="4">
-        <v>20902</v>
+        <v>20912</v>
       </c>
       <c r="E29" s="4">
-        <v>94338</v>
+        <v>94394</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1550,16 +1550,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>23195</v>
+        <v>23208</v>
       </c>
       <c r="C30" s="4">
         <v>2516</v>
       </c>
       <c r="D30" s="4">
-        <v>17742</v>
+        <v>17764</v>
       </c>
       <c r="E30" s="4">
-        <v>43453</v>
+        <v>43488</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>7764</v>
+        <v>7767</v>
       </c>
       <c r="C31" s="4">
         <v>355</v>
       </c>
       <c r="D31" s="4">
-        <v>13923</v>
+        <v>13937</v>
       </c>
       <c r="E31" s="4">
-        <v>22042</v>
+        <v>22059</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1584,16 +1584,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>508744</v>
+        <v>508960</v>
       </c>
       <c r="C32" s="4">
-        <v>12241</v>
+        <v>12248</v>
       </c>
       <c r="D32" s="4">
-        <v>183511</v>
+        <v>183970</v>
       </c>
       <c r="E32" s="4">
-        <v>704496</v>
+        <v>705178</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1601,16 +1601,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>10822</v>
+        <v>10832</v>
       </c>
       <c r="C33" s="4">
         <v>581</v>
       </c>
       <c r="D33" s="4">
-        <v>4566</v>
+        <v>4568</v>
       </c>
       <c r="E33" s="4">
-        <v>15969</v>
+        <v>15981</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1618,16 +1618,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>3576</v>
+        <v>3578</v>
       </c>
       <c r="C34" s="4">
         <v>1150</v>
       </c>
       <c r="D34" s="4">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="E34" s="4">
-        <v>6576</v>
+        <v>6579</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1635,16 +1635,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>21944</v>
+        <v>21950</v>
       </c>
       <c r="C35" s="4">
         <v>3404</v>
       </c>
       <c r="D35" s="4">
-        <v>16534</v>
+        <v>16555</v>
       </c>
       <c r="E35" s="4">
-        <v>41882</v>
+        <v>41909</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1652,16 +1652,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>9549</v>
+        <v>9552</v>
       </c>
       <c r="C36" s="4">
         <v>453</v>
       </c>
       <c r="D36" s="4">
-        <v>4461</v>
+        <v>4466</v>
       </c>
       <c r="E36" s="4">
-        <v>14463</v>
+        <v>14471</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1669,16 +1669,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>16149</v>
+        <v>16180</v>
       </c>
       <c r="C37" s="4">
         <v>933</v>
       </c>
       <c r="D37" s="4">
-        <v>4278</v>
+        <v>4287</v>
       </c>
       <c r="E37" s="4">
-        <v>21360</v>
+        <v>21400</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1686,16 +1686,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>41173</v>
+        <v>41190</v>
       </c>
       <c r="C38" s="4">
         <v>1358</v>
       </c>
       <c r="D38" s="4">
-        <v>36993</v>
+        <v>37006</v>
       </c>
       <c r="E38" s="4">
-        <v>79524</v>
+        <v>79554</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1703,7 +1703,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>8489</v>
+        <v>8500</v>
       </c>
       <c r="C39" s="4">
         <v>479</v>
@@ -1712,7 +1712,7 @@
         <v>6917</v>
       </c>
       <c r="E39" s="4">
-        <v>15885</v>
+        <v>15896</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1720,16 +1720,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>7420</v>
+        <v>7427</v>
       </c>
       <c r="C40" s="4">
         <v>744</v>
       </c>
       <c r="D40" s="4">
-        <v>6932</v>
+        <v>6934</v>
       </c>
       <c r="E40" s="4">
-        <v>15096</v>
+        <v>15105</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1737,16 +1737,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C41" s="4">
         <v>30</v>
       </c>
       <c r="D41" s="4">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E41" s="4">
-        <v>2626</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1760,10 +1760,10 @@
         <v>75</v>
       </c>
       <c r="D42" s="4">
-        <v>4045</v>
+        <v>4050</v>
       </c>
       <c r="E42" s="4">
-        <v>7235</v>
+        <v>7240</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1788,16 +1788,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>1848216</v>
+        <v>1849322</v>
       </c>
       <c r="C44" s="4">
-        <v>118776</v>
+        <v>118797</v>
       </c>
       <c r="D44" s="4">
-        <v>402843</v>
+        <v>404258</v>
       </c>
       <c r="E44" s="4">
-        <v>2369835</v>
+        <v>2372377</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1805,7 +1805,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>2245</v>
+        <v>2248</v>
       </c>
       <c r="C45" s="4">
         <v>146</v>
@@ -1814,7 +1814,7 @@
         <v>3896</v>
       </c>
       <c r="E45" s="4">
-        <v>6287</v>
+        <v>6290</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1822,16 +1822,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>21772</v>
+        <v>21787</v>
       </c>
       <c r="C46" s="4">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D46" s="4">
-        <v>12867</v>
+        <v>12890</v>
       </c>
       <c r="E46" s="4">
-        <v>35893</v>
+        <v>35932</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1839,16 +1839,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>221024</v>
+        <v>221207</v>
       </c>
       <c r="C47" s="4">
-        <v>13931</v>
+        <v>13939</v>
       </c>
       <c r="D47" s="4">
-        <v>66416</v>
+        <v>66490</v>
       </c>
       <c r="E47" s="4">
-        <v>301371</v>
+        <v>301636</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1856,16 +1856,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>12964</v>
+        <v>12967</v>
       </c>
       <c r="C48" s="4">
         <v>390</v>
       </c>
       <c r="D48" s="4">
-        <v>7988</v>
+        <v>7990</v>
       </c>
       <c r="E48" s="4">
-        <v>21342</v>
+        <v>21347</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1879,10 +1879,10 @@
         <v>40</v>
       </c>
       <c r="D49" s="4">
-        <v>5590</v>
+        <v>5593</v>
       </c>
       <c r="E49" s="4">
-        <v>8269</v>
+        <v>8272</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1890,16 +1890,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>35648</v>
+        <v>35669</v>
       </c>
       <c r="C50" s="4">
         <v>2512</v>
       </c>
       <c r="D50" s="4">
-        <v>15815</v>
+        <v>15829</v>
       </c>
       <c r="E50" s="4">
-        <v>53975</v>
+        <v>54010</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1907,16 +1907,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>149601</v>
+        <v>149635</v>
       </c>
       <c r="C51" s="4">
-        <v>2514</v>
+        <v>2517</v>
       </c>
       <c r="D51" s="4">
-        <v>36130</v>
+        <v>36155</v>
       </c>
       <c r="E51" s="4">
-        <v>188245</v>
+        <v>188307</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1924,7 +1924,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="C52" s="4">
         <v>78</v>
@@ -1933,7 +1933,7 @@
         <v>1107</v>
       </c>
       <c r="E52" s="4">
-        <v>2699</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1941,16 +1941,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>5105</v>
+        <v>5106</v>
       </c>
       <c r="C53" s="4">
         <v>98</v>
       </c>
       <c r="D53" s="4">
-        <v>5086</v>
+        <v>5213</v>
       </c>
       <c r="E53" s="4">
-        <v>10289</v>
+        <v>10417</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1964,10 +1964,10 @@
         <v>27</v>
       </c>
       <c r="D54" s="4">
-        <v>6006</v>
+        <v>6007</v>
       </c>
       <c r="E54" s="4">
-        <v>7313</v>
+        <v>7314</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1975,16 +1975,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>4199</v>
+        <v>4202</v>
       </c>
       <c r="C55" s="4">
         <v>80</v>
       </c>
       <c r="D55" s="4">
-        <v>4410</v>
+        <v>4412</v>
       </c>
       <c r="E55" s="4">
-        <v>8689</v>
+        <v>8694</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1992,7 +1992,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="C56" s="4">
         <v>42</v>
@@ -2001,7 +2001,7 @@
         <v>473</v>
       </c>
       <c r="E56" s="4">
-        <v>3632</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2015,10 +2015,10 @@
         <v>609</v>
       </c>
       <c r="D57" s="4">
-        <v>4342</v>
+        <v>4344</v>
       </c>
       <c r="E57" s="4">
-        <v>9391</v>
+        <v>9393</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2026,16 +2026,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>4413950</v>
+        <v>4416546</v>
       </c>
       <c r="C58" s="4">
-        <v>175717</v>
+        <v>175771</v>
       </c>
       <c r="D58" s="4">
-        <v>773209</v>
+        <v>774071</v>
       </c>
       <c r="E58" s="4">
-        <v>5362876</v>
+        <v>5366388</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2043,16 +2043,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>12317</v>
+        <v>12322</v>
       </c>
       <c r="C59" s="4">
         <v>644</v>
       </c>
       <c r="D59" s="4">
-        <v>7282</v>
+        <v>7286</v>
       </c>
       <c r="E59" s="4">
-        <v>20243</v>
+        <v>20252</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2060,16 +2060,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>17879</v>
+        <v>17883</v>
       </c>
       <c r="C60" s="4">
         <v>670</v>
       </c>
       <c r="D60" s="4">
-        <v>9027</v>
+        <v>9031</v>
       </c>
       <c r="E60" s="4">
-        <v>27576</v>
+        <v>27584</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2077,16 +2077,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>9320</v>
+        <v>9347</v>
       </c>
       <c r="C61" s="4">
         <v>1304</v>
       </c>
       <c r="D61" s="4">
-        <v>8385</v>
+        <v>8388</v>
       </c>
       <c r="E61" s="4">
-        <v>19009</v>
+        <v>19039</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2094,16 +2094,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>3485</v>
+        <v>3487</v>
       </c>
       <c r="C62" s="4">
         <v>263</v>
       </c>
       <c r="D62" s="4">
-        <v>3905</v>
+        <v>3911</v>
       </c>
       <c r="E62" s="4">
-        <v>7653</v>
+        <v>7661</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2111,16 +2111,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>1082442</v>
+        <v>1083075</v>
       </c>
       <c r="C63" s="4">
-        <v>84953</v>
+        <v>84980</v>
       </c>
       <c r="D63" s="4">
-        <v>319637</v>
+        <v>319933</v>
       </c>
       <c r="E63" s="4">
-        <v>1487032</v>
+        <v>1487988</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2128,16 +2128,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C64" s="4">
         <v>22</v>
       </c>
       <c r="D64" s="4">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="E64" s="4">
-        <v>2256</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2145,16 +2145,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>36378</v>
+        <v>36392</v>
       </c>
       <c r="C65" s="4">
         <v>137</v>
       </c>
       <c r="D65" s="4">
-        <v>46836</v>
+        <v>46848</v>
       </c>
       <c r="E65" s="4">
-        <v>83351</v>
+        <v>83377</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2162,16 +2162,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>2348</v>
+        <v>2351</v>
       </c>
       <c r="C66" s="4">
         <v>507</v>
       </c>
       <c r="D66" s="4">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="E66" s="4">
-        <v>5417</v>
+        <v>5421</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2179,16 +2179,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>27168</v>
+        <v>27180</v>
       </c>
       <c r="C67" s="4">
         <v>3537</v>
       </c>
       <c r="D67" s="4">
-        <v>13946</v>
+        <v>13952</v>
       </c>
       <c r="E67" s="4">
-        <v>44651</v>
+        <v>44669</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2196,16 +2196,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>8476</v>
+        <v>8480</v>
       </c>
       <c r="C68" s="4">
         <v>572</v>
       </c>
       <c r="D68" s="4">
-        <v>10293</v>
+        <v>10294</v>
       </c>
       <c r="E68" s="4">
-        <v>19341</v>
+        <v>19346</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2213,16 +2213,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>108051</v>
+        <v>108170</v>
       </c>
       <c r="C69" s="4">
-        <v>6665</v>
+        <v>6666</v>
       </c>
       <c r="D69" s="4">
-        <v>82960</v>
+        <v>83152</v>
       </c>
       <c r="E69" s="4">
-        <v>197676</v>
+        <v>197988</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2230,7 +2230,7 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="C70" s="4">
         <v>46</v>
@@ -2239,7 +2239,7 @@
         <v>1083</v>
       </c>
       <c r="E70" s="4">
-        <v>2697</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2247,16 +2247,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>1491831</v>
+        <v>1492599</v>
       </c>
       <c r="C71" s="4">
-        <v>24059</v>
+        <v>24066</v>
       </c>
       <c r="D71" s="4">
-        <v>683805</v>
+        <v>684245</v>
       </c>
       <c r="E71" s="4">
-        <v>2199695</v>
+        <v>2200910</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2264,16 +2264,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>290644</v>
+        <v>290808</v>
       </c>
       <c r="C72" s="4">
         <v>10083</v>
       </c>
       <c r="D72" s="4">
-        <v>68802</v>
+        <v>68882</v>
       </c>
       <c r="E72" s="4">
-        <v>369529</v>
+        <v>369773</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2281,16 +2281,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>37587</v>
+        <v>37624</v>
       </c>
       <c r="C73" s="4">
         <v>2211</v>
       </c>
       <c r="D73" s="4">
-        <v>17408</v>
+        <v>17417</v>
       </c>
       <c r="E73" s="4">
-        <v>57206</v>
+        <v>57252</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2298,16 +2298,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>19980</v>
+        <v>19990</v>
       </c>
       <c r="C74" s="4">
         <v>501</v>
       </c>
       <c r="D74" s="4">
-        <v>11973</v>
+        <v>11982</v>
       </c>
       <c r="E74" s="4">
-        <v>32454</v>
+        <v>32473</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2315,16 +2315,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>48574</v>
+        <v>48589</v>
       </c>
       <c r="C75" s="4">
         <v>1207</v>
       </c>
       <c r="D75" s="4">
-        <v>13994</v>
+        <v>14016</v>
       </c>
       <c r="E75" s="4">
-        <v>63775</v>
+        <v>63812</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2332,16 +2332,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>26249</v>
+        <v>26256</v>
       </c>
       <c r="C76" s="4">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D76" s="4">
-        <v>9191</v>
+        <v>9201</v>
       </c>
       <c r="E76" s="4">
-        <v>36532</v>
+        <v>36550</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2355,10 +2355,10 @@
         <v>44</v>
       </c>
       <c r="D77" s="4">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="E77" s="4">
-        <v>2856</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2366,7 +2366,7 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>5576</v>
+        <v>5577</v>
       </c>
       <c r="C78" s="4">
         <v>176</v>
@@ -2375,7 +2375,7 @@
         <v>1039</v>
       </c>
       <c r="E78" s="4">
-        <v>6791</v>
+        <v>6792</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2383,7 +2383,7 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C79" s="4">
         <v>166</v>
@@ -2392,7 +2392,7 @@
         <v>2475</v>
       </c>
       <c r="E79" s="4">
-        <v>3418</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2400,16 +2400,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>1385632</v>
+        <v>1386798</v>
       </c>
       <c r="C80" s="4">
-        <v>53131</v>
+        <v>53155</v>
       </c>
       <c r="D80" s="4">
-        <v>206841</v>
+        <v>207027</v>
       </c>
       <c r="E80" s="4">
-        <v>1645604</v>
+        <v>1646980</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2417,16 +2417,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>8118</v>
+        <v>8121</v>
       </c>
       <c r="C81" s="4">
         <v>632</v>
       </c>
       <c r="D81" s="4">
-        <v>2202</v>
+        <v>2206</v>
       </c>
       <c r="E81" s="4">
-        <v>10952</v>
+        <v>10959</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2434,16 +2434,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>26467</v>
+        <v>26474</v>
       </c>
       <c r="C82" s="4">
         <v>876</v>
       </c>
       <c r="D82" s="4">
-        <v>23856</v>
+        <v>23861</v>
       </c>
       <c r="E82" s="4">
-        <v>51199</v>
+        <v>51211</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2451,16 +2451,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>38129</v>
+        <v>38133</v>
       </c>
       <c r="C83" s="4">
         <v>585</v>
       </c>
       <c r="D83" s="4">
-        <v>10336</v>
+        <v>10360</v>
       </c>
       <c r="E83" s="4">
-        <v>49050</v>
+        <v>49078</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2468,16 +2468,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>5749</v>
+        <v>5751</v>
       </c>
       <c r="C84" s="4">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D84" s="4">
-        <v>3065</v>
+        <v>3069</v>
       </c>
       <c r="E84" s="4">
-        <v>9127</v>
+        <v>9135</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2485,16 +2485,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>714973</v>
+        <v>715750</v>
       </c>
       <c r="C85" s="4">
-        <v>28523</v>
+        <v>28549</v>
       </c>
       <c r="D85" s="4">
-        <v>125249</v>
+        <v>125420</v>
       </c>
       <c r="E85" s="4">
-        <v>868745</v>
+        <v>869719</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2502,16 +2502,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>4749</v>
+        <v>4751</v>
       </c>
       <c r="C86" s="4">
         <v>77</v>
       </c>
       <c r="D86" s="4">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="E86" s="4">
-        <v>7023</v>
+        <v>7026</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2519,16 +2519,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>24050</v>
+        <v>24074</v>
       </c>
       <c r="C87" s="4">
-        <v>1151</v>
+        <v>1157</v>
       </c>
       <c r="D87" s="4">
-        <v>14116</v>
+        <v>14126</v>
       </c>
       <c r="E87" s="4">
-        <v>39317</v>
+        <v>39357</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2553,16 +2553,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>5444</v>
+        <v>5447</v>
       </c>
       <c r="C89" s="4">
         <v>406</v>
       </c>
       <c r="D89" s="4">
-        <v>4153</v>
+        <v>4157</v>
       </c>
       <c r="E89" s="4">
-        <v>10003</v>
+        <v>10010</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2570,16 +2570,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>18814</v>
+        <v>18821</v>
       </c>
       <c r="C90" s="4">
         <v>542</v>
       </c>
       <c r="D90" s="4">
-        <v>15469</v>
+        <v>15474</v>
       </c>
       <c r="E90" s="4">
-        <v>34825</v>
+        <v>34837</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2587,16 +2587,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>14754</v>
+        <v>14758</v>
       </c>
       <c r="C91" s="4">
         <v>1383</v>
       </c>
       <c r="D91" s="4">
-        <v>14053</v>
+        <v>14079</v>
       </c>
       <c r="E91" s="4">
-        <v>30190</v>
+        <v>30220</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2604,16 +2604,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>193757</v>
+        <v>193800</v>
       </c>
       <c r="C92" s="4">
         <v>6641</v>
       </c>
       <c r="D92" s="4">
-        <v>62154</v>
+        <v>62261</v>
       </c>
       <c r="E92" s="4">
-        <v>262552</v>
+        <v>262702</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2621,16 +2621,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>91526</v>
+        <v>91550</v>
       </c>
       <c r="C93" s="4">
-        <v>12483</v>
+        <v>12485</v>
       </c>
       <c r="D93" s="4">
-        <v>52686</v>
+        <v>52734</v>
       </c>
       <c r="E93" s="4">
-        <v>156695</v>
+        <v>156769</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2638,16 +2638,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>62391</v>
+        <v>62423</v>
       </c>
       <c r="C94" s="4">
         <v>1560</v>
       </c>
       <c r="D94" s="4">
-        <v>16587</v>
+        <v>16597</v>
       </c>
       <c r="E94" s="4">
-        <v>80538</v>
+        <v>80580</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2655,16 +2655,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>172389</v>
+        <v>172525</v>
       </c>
       <c r="C95" s="4">
-        <v>6721</v>
+        <v>6724</v>
       </c>
       <c r="D95" s="4">
-        <v>58090</v>
+        <v>58140</v>
       </c>
       <c r="E95" s="4">
-        <v>237200</v>
+        <v>237389</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2672,16 +2672,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>35264</v>
+        <v>35300</v>
       </c>
       <c r="C96" s="4">
         <v>557</v>
       </c>
       <c r="D96" s="4">
-        <v>9998</v>
+        <v>10002</v>
       </c>
       <c r="E96" s="4">
-        <v>45819</v>
+        <v>45859</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2689,7 +2689,7 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>2807</v>
+        <v>2810</v>
       </c>
       <c r="C97" s="4">
         <v>81</v>
@@ -2698,7 +2698,7 @@
         <v>3779</v>
       </c>
       <c r="E97" s="4">
-        <v>6667</v>
+        <v>6670</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2706,16 +2706,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>12519</v>
+        <v>12523</v>
       </c>
       <c r="C98" s="4">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D98" s="4">
-        <v>5691</v>
+        <v>5698</v>
       </c>
       <c r="E98" s="4">
-        <v>18686</v>
+        <v>18698</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2723,7 +2723,7 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="C99" s="4">
         <v>874</v>
@@ -2732,7 +2732,7 @@
         <v>5008</v>
       </c>
       <c r="E99" s="4">
-        <v>8264</v>
+        <v>8265</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2740,7 +2740,7 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>2820</v>
+        <v>2827</v>
       </c>
       <c r="C100" s="4">
         <v>332</v>
@@ -2749,7 +2749,7 @@
         <v>4150</v>
       </c>
       <c r="E100" s="4">
-        <v>7302</v>
+        <v>7309</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2757,16 +2757,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>48676</v>
+        <v>48744</v>
       </c>
       <c r="C101" s="4">
         <v>4710</v>
       </c>
       <c r="D101" s="4">
-        <v>32229</v>
+        <v>32284</v>
       </c>
       <c r="E101" s="4">
-        <v>85615</v>
+        <v>85738</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2774,16 +2774,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>8605459</v>
+        <v>8615285</v>
       </c>
       <c r="C102" s="4">
-        <v>287047</v>
+        <v>287241</v>
       </c>
       <c r="D102" s="4">
-        <v>1279741</v>
+        <v>1281319</v>
       </c>
       <c r="E102" s="4">
-        <v>10172247</v>
+        <v>10183845</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2791,16 +2791,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>91825</v>
+        <v>91863</v>
       </c>
       <c r="C103" s="4">
         <v>9538</v>
       </c>
       <c r="D103" s="4">
-        <v>39339</v>
+        <v>39385</v>
       </c>
       <c r="E103" s="4">
-        <v>140702</v>
+        <v>140786</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2825,16 +2825,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="C105" s="4">
         <v>48</v>
       </c>
       <c r="D105" s="4">
-        <v>4381</v>
+        <v>4383</v>
       </c>
       <c r="E105" s="4">
-        <v>6505</v>
+        <v>6508</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2842,16 +2842,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>520532</v>
+        <v>520962</v>
       </c>
       <c r="C106" s="4">
-        <v>18423</v>
+        <v>18427</v>
       </c>
       <c r="D106" s="4">
-        <v>71740</v>
+        <v>71787</v>
       </c>
       <c r="E106" s="4">
-        <v>610695</v>
+        <v>611176</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2859,7 +2859,7 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>1512</v>
+        <v>1516</v>
       </c>
       <c r="C107" s="4">
         <v>550</v>
@@ -2868,7 +2868,7 @@
         <v>605</v>
       </c>
       <c r="E107" s="4">
-        <v>2667</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2876,16 +2876,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>56619</v>
+        <v>56657</v>
       </c>
       <c r="C108" s="4">
         <v>3419</v>
       </c>
       <c r="D108" s="4">
-        <v>32918</v>
+        <v>32937</v>
       </c>
       <c r="E108" s="4">
-        <v>92956</v>
+        <v>93013</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2893,16 +2893,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>991209</v>
+        <v>993066</v>
       </c>
       <c r="C109" s="4">
-        <v>23684</v>
+        <v>23710</v>
       </c>
       <c r="D109" s="4">
-        <v>464909</v>
+        <v>465531</v>
       </c>
       <c r="E109" s="4">
-        <v>1479802</v>
+        <v>1482307</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2910,16 +2910,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>45812</v>
+        <v>45838</v>
       </c>
       <c r="C110" s="4">
         <v>1355</v>
       </c>
       <c r="D110" s="4">
-        <v>22500</v>
+        <v>22605</v>
       </c>
       <c r="E110" s="4">
-        <v>69667</v>
+        <v>69798</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2927,16 +2927,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>21465</v>
+        <v>21488</v>
       </c>
       <c r="C111" s="4">
         <v>284</v>
       </c>
       <c r="D111" s="4">
-        <v>9533</v>
+        <v>9574</v>
       </c>
       <c r="E111" s="4">
-        <v>31282</v>
+        <v>31346</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2944,16 +2944,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>62258</v>
+        <v>62288</v>
       </c>
       <c r="C112" s="4">
         <v>3397</v>
       </c>
       <c r="D112" s="4">
-        <v>50298</v>
+        <v>50329</v>
       </c>
       <c r="E112" s="4">
-        <v>115953</v>
+        <v>116014</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2961,16 +2961,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>30945</v>
+        <v>30967</v>
       </c>
       <c r="C113" s="4">
         <v>2184</v>
       </c>
       <c r="D113" s="4">
-        <v>17148</v>
+        <v>17158</v>
       </c>
       <c r="E113" s="4">
-        <v>50277</v>
+        <v>50309</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2978,16 +2978,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>22353</v>
+        <v>22358</v>
       </c>
       <c r="C114" s="4">
         <v>740</v>
       </c>
       <c r="D114" s="4">
-        <v>13728</v>
+        <v>13736</v>
       </c>
       <c r="E114" s="4">
-        <v>36821</v>
+        <v>36834</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2995,16 +2995,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>24525</v>
+        <v>24530</v>
       </c>
       <c r="C115" s="4">
         <v>987</v>
       </c>
       <c r="D115" s="4">
-        <v>26715</v>
+        <v>26717</v>
       </c>
       <c r="E115" s="4">
-        <v>52227</v>
+        <v>52234</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3012,16 +3012,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>3688</v>
+        <v>3690</v>
       </c>
       <c r="C116" s="4">
         <v>55</v>
       </c>
       <c r="D116" s="4">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="E116" s="4">
-        <v>5652</v>
+        <v>5655</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3029,16 +3029,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>148344</v>
+        <v>148441</v>
       </c>
       <c r="C117" s="4">
-        <v>5385</v>
+        <v>5387</v>
       </c>
       <c r="D117" s="4">
-        <v>55329</v>
+        <v>55431</v>
       </c>
       <c r="E117" s="4">
-        <v>209058</v>
+        <v>209259</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3046,16 +3046,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>14984</v>
+        <v>14985</v>
       </c>
       <c r="C118" s="4">
         <v>1902</v>
       </c>
       <c r="D118" s="4">
-        <v>11642</v>
+        <v>11657</v>
       </c>
       <c r="E118" s="4">
-        <v>28528</v>
+        <v>28544</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3063,7 +3063,7 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C119" s="4">
         <v>27</v>
@@ -3072,7 +3072,7 @@
         <v>1068</v>
       </c>
       <c r="E119" s="4">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3080,7 +3080,7 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>5695</v>
+        <v>5702</v>
       </c>
       <c r="C120" s="4">
         <v>303</v>
@@ -3089,7 +3089,7 @@
         <v>2242</v>
       </c>
       <c r="E120" s="4">
-        <v>8240</v>
+        <v>8247</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3097,16 +3097,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>12314</v>
+        <v>12325</v>
       </c>
       <c r="C121" s="4">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D121" s="4">
-        <v>6562</v>
+        <v>6566</v>
       </c>
       <c r="E121" s="4">
-        <v>19518</v>
+        <v>19535</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3114,16 +3114,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>31503</v>
+        <v>31533</v>
       </c>
       <c r="C122" s="4">
         <v>3196</v>
       </c>
       <c r="D122" s="4">
-        <v>20071</v>
+        <v>20075</v>
       </c>
       <c r="E122" s="4">
-        <v>54770</v>
+        <v>54804</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3131,16 +3131,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="C123" s="4">
         <v>61</v>
       </c>
       <c r="D123" s="4">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E123" s="4">
-        <v>2517</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3148,16 +3148,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>261785</v>
+        <v>261961</v>
       </c>
       <c r="C124" s="4">
-        <v>17108</v>
+        <v>17110</v>
       </c>
       <c r="D124" s="4">
-        <v>121271</v>
+        <v>121324</v>
       </c>
       <c r="E124" s="4">
-        <v>400164</v>
+        <v>400395</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3165,16 +3165,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>15333</v>
+        <v>15379</v>
       </c>
       <c r="C125" s="4">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D125" s="4">
         <v>18142</v>
       </c>
       <c r="E125" s="4">
-        <v>34255</v>
+        <v>34302</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3182,16 +3182,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>93344</v>
+        <v>93434</v>
       </c>
       <c r="C126" s="4">
-        <v>11462</v>
+        <v>11466</v>
       </c>
       <c r="D126" s="4">
-        <v>41191</v>
+        <v>41216</v>
       </c>
       <c r="E126" s="4">
-        <v>145997</v>
+        <v>146116</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3199,16 +3199,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>220872</v>
+        <v>220972</v>
       </c>
       <c r="C127" s="4">
-        <v>9632</v>
+        <v>9633</v>
       </c>
       <c r="D127" s="4">
-        <v>59446</v>
+        <v>59524</v>
       </c>
       <c r="E127" s="4">
-        <v>289950</v>
+        <v>290129</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3216,16 +3216,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>12572</v>
+        <v>12573</v>
       </c>
       <c r="C128" s="4">
         <v>250</v>
       </c>
       <c r="D128" s="4">
-        <v>11353</v>
+        <v>11363</v>
       </c>
       <c r="E128" s="4">
-        <v>24175</v>
+        <v>24186</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3233,16 +3233,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>23777</v>
+        <v>23793</v>
       </c>
       <c r="C129" s="4">
         <v>606</v>
       </c>
       <c r="D129" s="4">
-        <v>16122</v>
+        <v>16129</v>
       </c>
       <c r="E129" s="4">
-        <v>40505</v>
+        <v>40528</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3250,16 +3250,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>199158</v>
+        <v>199286</v>
       </c>
       <c r="C130" s="4">
-        <v>7625</v>
+        <v>7627</v>
       </c>
       <c r="D130" s="4">
-        <v>62940</v>
+        <v>63006</v>
       </c>
       <c r="E130" s="4">
-        <v>269723</v>
+        <v>269919</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3267,16 +3267,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>49209</v>
+        <v>49241</v>
       </c>
       <c r="C131" s="4">
         <v>3200</v>
       </c>
       <c r="D131" s="4">
-        <v>26087</v>
+        <v>26187</v>
       </c>
       <c r="E131" s="4">
-        <v>78496</v>
+        <v>78628</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3290,10 +3290,10 @@
         <v>56</v>
       </c>
       <c r="D132" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E132" s="4">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="133" ht="14" customHeight="1">
@@ -3318,16 +3318,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>50289</v>
+        <v>50314</v>
       </c>
       <c r="C134" s="4">
-        <v>2327</v>
+        <v>2330</v>
       </c>
       <c r="D134" s="4">
-        <v>57640</v>
+        <v>57857</v>
       </c>
       <c r="E134" s="4">
-        <v>110256</v>
+        <v>110501</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3335,16 +3335,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>2527</v>
+        <v>2531</v>
       </c>
       <c r="C135" s="4">
         <v>76</v>
       </c>
       <c r="D135" s="4">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="E135" s="4">
-        <v>4396</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3369,16 +3369,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>3718</v>
+        <v>3720</v>
       </c>
       <c r="C137" s="4">
         <v>64</v>
       </c>
       <c r="D137" s="4">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="E137" s="4">
-        <v>4678</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3386,16 +3386,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>45442</v>
+        <v>45465</v>
       </c>
       <c r="C138" s="4">
-        <v>5572</v>
+        <v>5574</v>
       </c>
       <c r="D138" s="4">
-        <v>20783</v>
+        <v>20809</v>
       </c>
       <c r="E138" s="4">
-        <v>71797</v>
+        <v>71848</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3403,16 +3403,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C139" s="4">
         <v>65</v>
       </c>
       <c r="D139" s="4">
-        <v>7521</v>
+        <v>7586</v>
       </c>
       <c r="E139" s="4">
-        <v>8909</v>
+        <v>8975</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3420,16 +3420,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>14414</v>
+        <v>14416</v>
       </c>
       <c r="C140" s="4">
         <v>331</v>
       </c>
       <c r="D140" s="4">
-        <v>7756</v>
+        <v>7764</v>
       </c>
       <c r="E140" s="4">
-        <v>22501</v>
+        <v>22511</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3437,16 +3437,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>33841</v>
+        <v>33855</v>
       </c>
       <c r="C141" s="4">
         <v>3087</v>
       </c>
       <c r="D141" s="4">
-        <v>25441</v>
+        <v>25511</v>
       </c>
       <c r="E141" s="4">
-        <v>62369</v>
+        <v>62453</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3454,16 +3454,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>10258</v>
+        <v>10266</v>
       </c>
       <c r="C142" s="4">
         <v>190</v>
       </c>
       <c r="D142" s="4">
-        <v>12810</v>
+        <v>12865</v>
       </c>
       <c r="E142" s="4">
-        <v>23258</v>
+        <v>23321</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3471,16 +3471,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>32996</v>
+        <v>33015</v>
       </c>
       <c r="C143" s="4">
         <v>803</v>
       </c>
       <c r="D143" s="4">
-        <v>9288</v>
+        <v>9299</v>
       </c>
       <c r="E143" s="4">
-        <v>43087</v>
+        <v>43117</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3488,16 +3488,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>20810</v>
+        <v>20816</v>
       </c>
       <c r="C144" s="4">
         <v>1431</v>
       </c>
       <c r="D144" s="4">
-        <v>18618</v>
+        <v>18681</v>
       </c>
       <c r="E144" s="4">
-        <v>40859</v>
+        <v>40928</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3505,16 +3505,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>14589</v>
+        <v>14593</v>
       </c>
       <c r="C145" s="4">
         <v>526</v>
       </c>
       <c r="D145" s="4">
-        <v>8272</v>
+        <v>8278</v>
       </c>
       <c r="E145" s="4">
-        <v>23387</v>
+        <v>23397</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3522,16 +3522,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>18869</v>
+        <v>18879</v>
       </c>
       <c r="C146" s="4">
         <v>890</v>
       </c>
       <c r="D146" s="4">
-        <v>8644</v>
+        <v>8647</v>
       </c>
       <c r="E146" s="4">
-        <v>28403</v>
+        <v>28416</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3539,16 +3539,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>102627</v>
+        <v>102712</v>
       </c>
       <c r="C147" s="4">
-        <v>4849</v>
+        <v>4851</v>
       </c>
       <c r="D147" s="4">
-        <v>31564</v>
+        <v>31743</v>
       </c>
       <c r="E147" s="4">
-        <v>139040</v>
+        <v>139306</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3556,16 +3556,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>42725</v>
+        <v>42733</v>
       </c>
       <c r="C148" s="4">
         <v>813</v>
       </c>
       <c r="D148" s="4">
-        <v>43212</v>
+        <v>43214</v>
       </c>
       <c r="E148" s="4">
-        <v>86750</v>
+        <v>86760</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3573,7 +3573,7 @@
         <v>152</v>
       </c>
       <c r="B149" s="4">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C149" s="4">
         <v>330</v>
@@ -3582,7 +3582,7 @@
         <v>1268</v>
       </c>
       <c r="E149" s="4">
-        <v>2265</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3590,16 +3590,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>10320</v>
+        <v>10328</v>
       </c>
       <c r="C150" s="4">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="D150" s="4">
-        <v>8936</v>
+        <v>8997</v>
       </c>
       <c r="E150" s="4">
-        <v>20636</v>
+        <v>20707</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3607,16 +3607,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>20440</v>
+        <v>20454</v>
       </c>
       <c r="C151" s="4">
         <v>705</v>
       </c>
       <c r="D151" s="4">
-        <v>6413</v>
+        <v>6419</v>
       </c>
       <c r="E151" s="4">
-        <v>27558</v>
+        <v>27578</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3624,16 +3624,16 @@
         <v>155</v>
       </c>
       <c r="B152" s="4">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C152" s="4">
         <v>5</v>
       </c>
       <c r="D152" s="4">
-        <v>12598</v>
+        <v>12686</v>
       </c>
       <c r="E152" s="4">
-        <v>13025</v>
+        <v>13114</v>
       </c>
     </row>
     <row r="153" ht="14" customHeight="1">
@@ -3641,16 +3641,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>384965</v>
+        <v>385192</v>
       </c>
       <c r="C153" s="4">
         <v>13023</v>
       </c>
       <c r="D153" s="4">
-        <v>211541</v>
+        <v>211664</v>
       </c>
       <c r="E153" s="4">
-        <v>609529</v>
+        <v>609879</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3658,7 +3658,7 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>4858</v>
+        <v>4860</v>
       </c>
       <c r="C154" s="4">
         <v>195</v>
@@ -3667,7 +3667,7 @@
         <v>4450</v>
       </c>
       <c r="E154" s="4">
-        <v>9503</v>
+        <v>9505</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3675,16 +3675,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>20971</v>
+        <v>20981</v>
       </c>
       <c r="C155" s="4">
         <v>424</v>
       </c>
       <c r="D155" s="4">
-        <v>7478</v>
+        <v>7488</v>
       </c>
       <c r="E155" s="4">
-        <v>28873</v>
+        <v>28893</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3692,16 +3692,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>4564</v>
+        <v>4565</v>
       </c>
       <c r="C156" s="4">
         <v>885</v>
       </c>
       <c r="D156" s="4">
-        <v>4345</v>
+        <v>4352</v>
       </c>
       <c r="E156" s="4">
-        <v>9794</v>
+        <v>9802</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3726,7 +3726,7 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>2730</v>
+        <v>2732</v>
       </c>
       <c r="C158" s="4">
         <v>128</v>
@@ -3735,7 +3735,7 @@
         <v>2415</v>
       </c>
       <c r="E158" s="4">
-        <v>5273</v>
+        <v>5275</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3743,16 +3743,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>53551</v>
+        <v>53574</v>
       </c>
       <c r="C159" s="4">
         <v>2035</v>
       </c>
       <c r="D159" s="4">
-        <v>8846</v>
+        <v>8847</v>
       </c>
       <c r="E159" s="4">
-        <v>64432</v>
+        <v>64456</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3760,16 +3760,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>109326</v>
+        <v>109417</v>
       </c>
       <c r="C160" s="4">
         <v>542</v>
       </c>
       <c r="D160" s="4">
-        <v>32015</v>
+        <v>32058</v>
       </c>
       <c r="E160" s="4">
-        <v>141883</v>
+        <v>142017</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3783,10 +3783,10 @@
         <v>97</v>
       </c>
       <c r="D161" s="4">
-        <v>4987</v>
+        <v>4991</v>
       </c>
       <c r="E161" s="4">
-        <v>9122</v>
+        <v>9126</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3794,16 +3794,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>461023</v>
+        <v>461160</v>
       </c>
       <c r="C162" s="4">
         <v>13889</v>
       </c>
       <c r="D162" s="4">
-        <v>177373</v>
+        <v>177746</v>
       </c>
       <c r="E162" s="4">
-        <v>652285</v>
+        <v>652795</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3828,16 +3828,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>57178</v>
+        <v>57207</v>
       </c>
       <c r="C164" s="4">
         <v>1831</v>
       </c>
       <c r="D164" s="4">
-        <v>18052</v>
+        <v>18085</v>
       </c>
       <c r="E164" s="4">
-        <v>77061</v>
+        <v>77123</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3845,16 +3845,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="C165" s="4">
         <v>29</v>
       </c>
       <c r="D165" s="4">
-        <v>2912</v>
+        <v>2914</v>
       </c>
       <c r="E165" s="4">
-        <v>5502</v>
+        <v>5506</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3862,16 +3862,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>90964</v>
+        <v>91008</v>
       </c>
       <c r="C166" s="4">
-        <v>12584</v>
+        <v>12587</v>
       </c>
       <c r="D166" s="4">
-        <v>98006</v>
+        <v>98196</v>
       </c>
       <c r="E166" s="4">
-        <v>201554</v>
+        <v>201791</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3879,16 +3879,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>28307</v>
+        <v>28322</v>
       </c>
       <c r="C167" s="4">
         <v>1426</v>
       </c>
       <c r="D167" s="4">
-        <v>16100</v>
+        <v>16111</v>
       </c>
       <c r="E167" s="4">
-        <v>45833</v>
+        <v>45859</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3913,16 +3913,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>9153</v>
+        <v>9154</v>
       </c>
       <c r="C169" s="4">
         <v>89</v>
       </c>
       <c r="D169" s="4">
-        <v>8367</v>
+        <v>8373</v>
       </c>
       <c r="E169" s="4">
-        <v>17609</v>
+        <v>17616</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3930,16 +3930,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>20911</v>
+        <v>20917</v>
       </c>
       <c r="C170" s="4">
         <v>1372</v>
       </c>
       <c r="D170" s="4">
-        <v>12238</v>
+        <v>12243</v>
       </c>
       <c r="E170" s="4">
-        <v>34521</v>
+        <v>34532</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3947,16 +3947,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>802180</v>
+        <v>802822</v>
       </c>
       <c r="C171" s="4">
-        <v>50539</v>
+        <v>50575</v>
       </c>
       <c r="D171" s="4">
-        <v>182544</v>
+        <v>182856</v>
       </c>
       <c r="E171" s="4">
-        <v>1035263</v>
+        <v>1036253</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3964,16 +3964,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>12435</v>
+        <v>12439</v>
       </c>
       <c r="C172" s="4">
         <v>1264</v>
       </c>
       <c r="D172" s="4">
-        <v>8495</v>
+        <v>8520</v>
       </c>
       <c r="E172" s="4">
-        <v>22194</v>
+        <v>22223</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3981,16 +3981,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>10649</v>
+        <v>10654</v>
       </c>
       <c r="C173" s="4">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D173" s="4">
-        <v>9503</v>
+        <v>9516</v>
       </c>
       <c r="E173" s="4">
-        <v>20986</v>
+        <v>21005</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -4015,16 +4015,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>72418</v>
+        <v>72451</v>
       </c>
       <c r="C175" s="4">
-        <v>4662</v>
+        <v>4663</v>
       </c>
       <c r="D175" s="4">
-        <v>25062</v>
+        <v>25082</v>
       </c>
       <c r="E175" s="4">
-        <v>102142</v>
+        <v>102196</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4032,16 +4032,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>45205</v>
+        <v>45221</v>
       </c>
       <c r="C176" s="4">
         <v>2151</v>
       </c>
       <c r="D176" s="4">
-        <v>40773</v>
+        <v>40869</v>
       </c>
       <c r="E176" s="4">
-        <v>88129</v>
+        <v>88241</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4049,16 +4049,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>7991</v>
+        <v>7999</v>
       </c>
       <c r="C177" s="4">
         <v>964</v>
       </c>
       <c r="D177" s="4">
-        <v>6612</v>
+        <v>6614</v>
       </c>
       <c r="E177" s="4">
-        <v>15567</v>
+        <v>15577</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4066,16 +4066,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>10919</v>
+        <v>10920</v>
       </c>
       <c r="C178" s="4">
         <v>238</v>
       </c>
       <c r="D178" s="4">
-        <v>9654</v>
+        <v>9758</v>
       </c>
       <c r="E178" s="4">
-        <v>20811</v>
+        <v>20916</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4083,16 +4083,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>415179</v>
+        <v>415454</v>
       </c>
       <c r="C179" s="4">
-        <v>54331</v>
+        <v>54346</v>
       </c>
       <c r="D179" s="4">
-        <v>208195</v>
+        <v>208652</v>
       </c>
       <c r="E179" s="4">
-        <v>677705</v>
+        <v>678452</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4106,10 +4106,10 @@
         <v>470</v>
       </c>
       <c r="D180" s="4">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="E180" s="4">
-        <v>4288</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4123,10 +4123,10 @@
         <v>431</v>
       </c>
       <c r="D181" s="4">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="E181" s="4">
-        <v>3139</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4134,16 +4134,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>61770</v>
+        <v>61817</v>
       </c>
       <c r="C182" s="4">
         <v>7412</v>
       </c>
       <c r="D182" s="4">
-        <v>37903</v>
+        <v>37925</v>
       </c>
       <c r="E182" s="4">
-        <v>107085</v>
+        <v>107154</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4151,16 +4151,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>28967</v>
+        <v>28973</v>
       </c>
       <c r="C183" s="4">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D183" s="4">
-        <v>14608</v>
+        <v>14613</v>
       </c>
       <c r="E183" s="4">
-        <v>44729</v>
+        <v>44741</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4168,16 +4168,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>16580</v>
+        <v>16590</v>
       </c>
       <c r="C184" s="4">
         <v>1371</v>
       </c>
       <c r="D184" s="4">
-        <v>12271</v>
+        <v>12281</v>
       </c>
       <c r="E184" s="4">
-        <v>30222</v>
+        <v>30242</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4185,16 +4185,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>154703</v>
+        <v>154820</v>
       </c>
       <c r="C185" s="4">
-        <v>8302</v>
+        <v>8304</v>
       </c>
       <c r="D185" s="4">
-        <v>47760</v>
+        <v>47831</v>
       </c>
       <c r="E185" s="4">
-        <v>210765</v>
+        <v>210955</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4202,16 +4202,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>3755</v>
+        <v>3762</v>
       </c>
       <c r="C186" s="4">
         <v>387</v>
       </c>
       <c r="D186" s="4">
-        <v>4623</v>
+        <v>4629</v>
       </c>
       <c r="E186" s="4">
-        <v>8765</v>
+        <v>8778</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4219,16 +4219,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>15404</v>
+        <v>15408</v>
       </c>
       <c r="C187" s="4">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D187" s="4">
-        <v>6230</v>
+        <v>6236</v>
       </c>
       <c r="E187" s="4">
-        <v>21813</v>
+        <v>21824</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4236,16 +4236,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>63184</v>
+        <v>63227</v>
       </c>
       <c r="C188" s="4">
-        <v>3042</v>
+        <v>3044</v>
       </c>
       <c r="D188" s="4">
-        <v>25932</v>
+        <v>25945</v>
       </c>
       <c r="E188" s="4">
-        <v>92158</v>
+        <v>92216</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4253,16 +4253,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>127525</v>
+        <v>127623</v>
       </c>
       <c r="C189" s="4">
         <v>10381</v>
       </c>
       <c r="D189" s="4">
-        <v>56736</v>
+        <v>56826</v>
       </c>
       <c r="E189" s="4">
-        <v>194642</v>
+        <v>194830</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4287,16 +4287,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>6562</v>
+        <v>6566</v>
       </c>
       <c r="C191" s="4">
         <v>504</v>
       </c>
       <c r="D191" s="4">
-        <v>4110</v>
+        <v>4112</v>
       </c>
       <c r="E191" s="4">
-        <v>11176</v>
+        <v>11182</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4304,16 +4304,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>96755</v>
+        <v>96817</v>
       </c>
       <c r="C192" s="4">
         <v>21231</v>
       </c>
       <c r="D192" s="4">
-        <v>49644</v>
+        <v>49717</v>
       </c>
       <c r="E192" s="4">
-        <v>167630</v>
+        <v>167765</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4338,16 +4338,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>3056</v>
+        <v>3059</v>
       </c>
       <c r="C194" s="4">
         <v>138</v>
       </c>
       <c r="D194" s="4">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="E194" s="4">
-        <v>5127</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4355,16 +4355,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>9119</v>
+        <v>9121</v>
       </c>
       <c r="C195" s="4">
         <v>783</v>
       </c>
       <c r="D195" s="4">
-        <v>10838</v>
+        <v>10843</v>
       </c>
       <c r="E195" s="4">
-        <v>20740</v>
+        <v>20747</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4372,16 +4372,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>14490</v>
+        <v>14495</v>
       </c>
       <c r="C196" s="4">
         <v>563</v>
       </c>
       <c r="D196" s="4">
-        <v>101277</v>
+        <v>101392</v>
       </c>
       <c r="E196" s="4">
-        <v>116330</v>
+        <v>116450</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4389,16 +4389,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>6561</v>
+        <v>6563</v>
       </c>
       <c r="C197" s="4">
         <v>550</v>
       </c>
       <c r="D197" s="4">
-        <v>10281</v>
+        <v>10288</v>
       </c>
       <c r="E197" s="4">
-        <v>17392</v>
+        <v>17401</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4423,16 +4423,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>21433</v>
+        <v>21458</v>
       </c>
       <c r="C199" s="4">
         <v>592</v>
       </c>
       <c r="D199" s="4">
-        <v>15456</v>
+        <v>15466</v>
       </c>
       <c r="E199" s="4">
-        <v>37481</v>
+        <v>37516</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4440,16 +4440,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>126643</v>
+        <v>126704</v>
       </c>
       <c r="C200" s="4">
-        <v>8512</v>
+        <v>8513</v>
       </c>
       <c r="D200" s="4">
-        <v>25572</v>
+        <v>25610</v>
       </c>
       <c r="E200" s="4">
-        <v>160727</v>
+        <v>160827</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4463,10 +4463,10 @@
         <v>255</v>
       </c>
       <c r="D201" s="4">
-        <v>9888</v>
+        <v>9903</v>
       </c>
       <c r="E201" s="4">
-        <v>18752</v>
+        <v>18767</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4474,16 +4474,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>38866</v>
+        <v>38874</v>
       </c>
       <c r="C202" s="4">
         <v>2562</v>
       </c>
       <c r="D202" s="4">
-        <v>12500</v>
+        <v>12529</v>
       </c>
       <c r="E202" s="4">
-        <v>53928</v>
+        <v>53965</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4491,16 +4491,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>12234</v>
+        <v>12241</v>
       </c>
       <c r="C203" s="4">
         <v>771</v>
       </c>
       <c r="D203" s="4">
-        <v>5484</v>
+        <v>5486</v>
       </c>
       <c r="E203" s="4">
-        <v>18489</v>
+        <v>18498</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4508,16 +4508,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>11662</v>
+        <v>11663</v>
       </c>
       <c r="C204" s="4">
         <v>300</v>
       </c>
       <c r="D204" s="4">
-        <v>10946</v>
+        <v>10975</v>
       </c>
       <c r="E204" s="4">
-        <v>22908</v>
+        <v>22938</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4525,16 +4525,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>35600</v>
+        <v>35636</v>
       </c>
       <c r="C205" s="4">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="D205" s="4">
-        <v>12061</v>
+        <v>12079</v>
       </c>
       <c r="E205" s="4">
-        <v>50206</v>
+        <v>50261</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4542,16 +4542,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>64123</v>
+        <v>64165</v>
       </c>
       <c r="C206" s="4">
-        <v>10236</v>
+        <v>10238</v>
       </c>
       <c r="D206" s="4">
-        <v>52793</v>
+        <v>52837</v>
       </c>
       <c r="E206" s="4">
-        <v>127152</v>
+        <v>127240</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4559,16 +4559,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>5887</v>
+        <v>5892</v>
       </c>
       <c r="C207" s="4">
         <v>146</v>
       </c>
       <c r="D207" s="4">
-        <v>4821</v>
+        <v>4823</v>
       </c>
       <c r="E207" s="4">
-        <v>10854</v>
+        <v>10861</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4582,10 +4582,10 @@
         <v>25</v>
       </c>
       <c r="D208" s="4">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="E208" s="4">
-        <v>2470</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4593,16 +4593,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>32111</v>
+        <v>32144</v>
       </c>
       <c r="C209" s="4">
         <v>361</v>
       </c>
       <c r="D209" s="4">
-        <v>6139</v>
+        <v>6203</v>
       </c>
       <c r="E209" s="4">
-        <v>38611</v>
+        <v>38708</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4610,16 +4610,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C210" s="4">
         <v>98</v>
       </c>
       <c r="D210" s="4">
-        <v>1550</v>
+        <v>1556</v>
       </c>
       <c r="E210" s="4">
-        <v>2803</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4627,16 +4627,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>24546</v>
+        <v>24559</v>
       </c>
       <c r="C211" s="4">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="D211" s="4">
-        <v>12481</v>
+        <v>12484</v>
       </c>
       <c r="E211" s="4">
-        <v>38541</v>
+        <v>38559</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4644,16 +4644,16 @@
         <v>215</v>
       </c>
       <c r="B212" s="4">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C212" s="4">
         <v>186</v>
       </c>
       <c r="D212" s="4">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E212" s="4">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4661,16 +4661,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>329311</v>
+        <v>329473</v>
       </c>
       <c r="C213" s="4">
-        <v>16153</v>
+        <v>16155</v>
       </c>
       <c r="D213" s="4">
-        <v>120690</v>
+        <v>121032</v>
       </c>
       <c r="E213" s="4">
-        <v>466154</v>
+        <v>466660</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4678,7 +4678,7 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>10265</v>
+        <v>10276</v>
       </c>
       <c r="C214" s="4">
         <v>462</v>
@@ -4687,7 +4687,7 @@
         <v>9205</v>
       </c>
       <c r="E214" s="4">
-        <v>19932</v>
+        <v>19943</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4695,16 +4695,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>94345</v>
+        <v>94432</v>
       </c>
       <c r="C215" s="4">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D215" s="4">
-        <v>41339</v>
+        <v>41391</v>
       </c>
       <c r="E215" s="4">
-        <v>136635</v>
+        <v>136776</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4712,16 +4712,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>6671</v>
+        <v>6673</v>
       </c>
       <c r="C216" s="4">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D216" s="4">
-        <v>8165</v>
+        <v>8167</v>
       </c>
       <c r="E216" s="4">
-        <v>15014</v>
+        <v>15019</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4752,10 +4752,10 @@
         <v>10</v>
       </c>
       <c r="D218" s="4">
-        <v>2214</v>
+        <v>2217</v>
       </c>
       <c r="E218" s="4">
-        <v>2439</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4766,13 +4766,13 @@
         <v>1696</v>
       </c>
       <c r="C219" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D219" s="4">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="E219" s="4">
-        <v>3386</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4780,16 +4780,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>8928</v>
+        <v>8932</v>
       </c>
       <c r="C220" s="4">
         <v>472</v>
       </c>
       <c r="D220" s="4">
-        <v>2655</v>
+        <v>2657</v>
       </c>
       <c r="E220" s="4">
-        <v>12055</v>
+        <v>12061</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4797,16 +4797,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>3191349</v>
+        <v>3193155</v>
       </c>
       <c r="C221" s="4">
-        <v>121869</v>
+        <v>121889</v>
       </c>
       <c r="D221" s="4">
-        <v>721683</v>
+        <v>723105</v>
       </c>
       <c r="E221" s="4">
-        <v>4034901</v>
+        <v>4038149</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4814,16 +4814,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>126119</v>
+        <v>126157</v>
       </c>
       <c r="C222" s="4">
-        <v>4842</v>
+        <v>4843</v>
       </c>
       <c r="D222" s="4">
-        <v>174284</v>
+        <v>174411</v>
       </c>
       <c r="E222" s="4">
-        <v>305245</v>
+        <v>305411</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4848,16 +4848,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>6282</v>
+        <v>6285</v>
       </c>
       <c r="C224" s="4">
         <v>144</v>
       </c>
       <c r="D224" s="4">
-        <v>4876</v>
+        <v>4900</v>
       </c>
       <c r="E224" s="4">
-        <v>11302</v>
+        <v>11329</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4882,16 +4882,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>37770</v>
+        <v>37793</v>
       </c>
       <c r="C226" s="4">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D226" s="4">
-        <v>12042</v>
+        <v>12053</v>
       </c>
       <c r="E226" s="4">
-        <v>51341</v>
+        <v>51376</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4899,16 +4899,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>108697</v>
+        <v>108752</v>
       </c>
       <c r="C227" s="4">
-        <v>3407</v>
+        <v>3409</v>
       </c>
       <c r="D227" s="4">
-        <v>163101</v>
+        <v>163502</v>
       </c>
       <c r="E227" s="4">
-        <v>275205</v>
+        <v>275663</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4916,16 +4916,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>2158593</v>
+        <v>2160197</v>
       </c>
       <c r="C228" s="4">
-        <v>94241</v>
+        <v>94317</v>
       </c>
       <c r="D228" s="4">
-        <v>545574</v>
+        <v>546687</v>
       </c>
       <c r="E228" s="4">
-        <v>2798408</v>
+        <v>2801201</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4933,16 +4933,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>19746</v>
+        <v>19753</v>
       </c>
       <c r="C229" s="4">
         <v>637</v>
       </c>
       <c r="D229" s="4">
-        <v>9733</v>
+        <v>9749</v>
       </c>
       <c r="E229" s="4">
-        <v>30116</v>
+        <v>30139</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4950,16 +4950,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>17956</v>
+        <v>17969</v>
       </c>
       <c r="C230" s="4">
         <v>1142</v>
       </c>
       <c r="D230" s="4">
-        <v>12803</v>
+        <v>12809</v>
       </c>
       <c r="E230" s="4">
-        <v>31901</v>
+        <v>31920</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4967,16 +4967,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>17850</v>
+        <v>17861</v>
       </c>
       <c r="C231" s="4">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="D231" s="4">
-        <v>11495</v>
+        <v>11507</v>
       </c>
       <c r="E231" s="4">
-        <v>31957</v>
+        <v>31981</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4990,10 +4990,10 @@
         <v>105</v>
       </c>
       <c r="D232" s="4">
-        <v>4799</v>
+        <v>4801</v>
       </c>
       <c r="E232" s="4">
-        <v>6262</v>
+        <v>6264</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -5001,16 +5001,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>51998</v>
+        <v>52067</v>
       </c>
       <c r="C233" s="4">
         <v>638</v>
       </c>
       <c r="D233" s="4">
-        <v>7362</v>
+        <v>7373</v>
       </c>
       <c r="E233" s="4">
-        <v>59998</v>
+        <v>60078</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5018,16 +5018,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>75286</v>
+        <v>75322</v>
       </c>
       <c r="C234" s="4">
         <v>1367</v>
       </c>
       <c r="D234" s="4">
-        <v>38413</v>
+        <v>38421</v>
       </c>
       <c r="E234" s="4">
-        <v>115066</v>
+        <v>115110</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5035,16 +5035,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>38155</v>
+        <v>38173</v>
       </c>
       <c r="C235" s="4">
         <v>2538</v>
       </c>
       <c r="D235" s="4">
-        <v>25432</v>
+        <v>25440</v>
       </c>
       <c r="E235" s="4">
-        <v>66125</v>
+        <v>66151</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5052,16 +5052,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>84006</v>
+        <v>84044</v>
       </c>
       <c r="C236" s="4">
-        <v>6216</v>
+        <v>6217</v>
       </c>
       <c r="D236" s="4">
-        <v>37550</v>
+        <v>37570</v>
       </c>
       <c r="E236" s="4">
-        <v>127772</v>
+        <v>127831</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5069,16 +5069,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>186156</v>
+        <v>186256</v>
       </c>
       <c r="C237" s="4">
         <v>3422</v>
       </c>
       <c r="D237" s="4">
-        <v>53290</v>
+        <v>53556</v>
       </c>
       <c r="E237" s="4">
-        <v>242868</v>
+        <v>243234</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5086,16 +5086,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>71013</v>
+        <v>71127</v>
       </c>
       <c r="C238" s="4">
         <v>2449</v>
       </c>
       <c r="D238" s="4">
-        <v>13886</v>
+        <v>13900</v>
       </c>
       <c r="E238" s="4">
-        <v>87348</v>
+        <v>87476</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5103,7 +5103,7 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>6627</v>
+        <v>6628</v>
       </c>
       <c r="C239" s="4">
         <v>244</v>
@@ -5112,7 +5112,7 @@
         <v>3659</v>
       </c>
       <c r="E239" s="4">
-        <v>10530</v>
+        <v>10531</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5120,16 +5120,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>61502</v>
+        <v>61555</v>
       </c>
       <c r="C240" s="4">
         <v>2143</v>
       </c>
       <c r="D240" s="4">
-        <v>33653</v>
+        <v>33654</v>
       </c>
       <c r="E240" s="4">
-        <v>97298</v>
+        <v>97352</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5137,16 +5137,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>639624</v>
+        <v>640225</v>
       </c>
       <c r="C241" s="4">
-        <v>7255</v>
+        <v>7259</v>
       </c>
       <c r="D241" s="4">
-        <v>176787</v>
+        <v>176861</v>
       </c>
       <c r="E241" s="4">
-        <v>823666</v>
+        <v>824345</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5154,16 +5154,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>54354</v>
+        <v>54369</v>
       </c>
       <c r="C242" s="4">
-        <v>2698</v>
+        <v>2701</v>
       </c>
       <c r="D242" s="4">
-        <v>19727</v>
+        <v>19731</v>
       </c>
       <c r="E242" s="4">
-        <v>76779</v>
+        <v>76801</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5171,16 +5171,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="C243" s="4">
         <v>536</v>
       </c>
       <c r="D243" s="4">
-        <v>5674</v>
+        <v>5677</v>
       </c>
       <c r="E243" s="4">
-        <v>8949</v>
+        <v>8953</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5188,16 +5188,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>174019</v>
+        <v>174086</v>
       </c>
       <c r="C244" s="4">
-        <v>12470</v>
+        <v>12471</v>
       </c>
       <c r="D244" s="4">
-        <v>93154</v>
+        <v>93197</v>
       </c>
       <c r="E244" s="4">
-        <v>279643</v>
+        <v>279754</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5205,16 +5205,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>20316</v>
+        <v>20327</v>
       </c>
       <c r="C245" s="4">
         <v>865</v>
       </c>
       <c r="D245" s="4">
-        <v>40599</v>
+        <v>40600</v>
       </c>
       <c r="E245" s="4">
-        <v>61780</v>
+        <v>61792</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5222,16 +5222,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>58024</v>
+        <v>58030</v>
       </c>
       <c r="C246" s="4">
         <v>262</v>
       </c>
       <c r="D246" s="4">
-        <v>11454</v>
+        <v>11483</v>
       </c>
       <c r="E246" s="4">
-        <v>69740</v>
+        <v>69775</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5239,16 +5239,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>952886</v>
+        <v>953560</v>
       </c>
       <c r="C247" s="4">
-        <v>42247</v>
+        <v>42275</v>
       </c>
       <c r="D247" s="4">
-        <v>255085</v>
+        <v>255439</v>
       </c>
       <c r="E247" s="4">
-        <v>1250218</v>
+        <v>1251274</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5256,16 +5256,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>59999</v>
+        <v>60025</v>
       </c>
       <c r="C248" s="4">
-        <v>1710</v>
+        <v>1714</v>
       </c>
       <c r="D248" s="4">
-        <v>29911</v>
+        <v>29923</v>
       </c>
       <c r="E248" s="4">
-        <v>91620</v>
+        <v>91662</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5273,7 +5273,7 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="C249" s="4">
         <v>75</v>
@@ -5282,7 +5282,7 @@
         <v>925</v>
       </c>
       <c r="E249" s="4">
-        <v>3320</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5290,16 +5290,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>85081</v>
+        <v>85204</v>
       </c>
       <c r="C250" s="4">
         <v>4264</v>
       </c>
       <c r="D250" s="4">
-        <v>20687</v>
+        <v>20789</v>
       </c>
       <c r="E250" s="4">
-        <v>110032</v>
+        <v>110257</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5307,16 +5307,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>33368</v>
+        <v>33390</v>
       </c>
       <c r="C251" s="4">
         <v>2528</v>
       </c>
       <c r="D251" s="4">
-        <v>23015</v>
+        <v>23088</v>
       </c>
       <c r="E251" s="4">
-        <v>58911</v>
+        <v>59006</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5324,7 +5324,7 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>3188</v>
+        <v>3190</v>
       </c>
       <c r="C252" s="4">
         <v>175</v>
@@ -5333,7 +5333,7 @@
         <v>2717</v>
       </c>
       <c r="E252" s="4">
-        <v>6080</v>
+        <v>6082</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5341,16 +5341,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>12852</v>
+        <v>12859</v>
       </c>
       <c r="C253" s="4">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D253" s="4">
-        <v>8181</v>
+        <v>8185</v>
       </c>
       <c r="E253" s="4">
-        <v>21759</v>
+        <v>21771</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5358,16 +5358,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>20511</v>
+        <v>20538</v>
       </c>
       <c r="C254" s="4">
         <v>176</v>
       </c>
       <c r="D254" s="4">
-        <v>20402</v>
+        <v>20404</v>
       </c>
       <c r="E254" s="4">
-        <v>41089</v>
+        <v>41118</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5375,16 +5375,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>16956</v>
+        <v>16969</v>
       </c>
       <c r="C255" s="4">
         <v>271</v>
       </c>
       <c r="D255" s="4">
-        <v>3966</v>
+        <v>3973</v>
       </c>
       <c r="E255" s="4">
-        <v>21193</v>
+        <v>21213</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5392,16 +5392,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>463363</v>
+        <v>469670</v>
       </c>
       <c r="C256" s="4">
         <v>14575</v>
       </c>
       <c r="D256" s="4">
-        <v>19527</v>
+        <v>19564</v>
       </c>
       <c r="E256" s="4">
-        <v>497465</v>
+        <v>503809</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5409,16 +5409,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>46059760</v>
+        <v>46100230</v>
       </c>
       <c r="C257" s="4">
-        <v>1835788</v>
+        <v>1836544</v>
       </c>
       <c r="D257" s="4">
-        <v>12454150</v>
+        <v>12471851</v>
       </c>
       <c r="E257" s="4">
-        <v>60349698</v>
+        <v>60408625</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
